--- a/grupos/5BEM - Estadisticos 20211.xlsx
+++ b/grupos/5BEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="141">
   <si>
     <t>Materia</t>
   </si>
@@ -182,10 +182,10 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
     <t>Vargas Olvera Francisco Eduardo</t>
@@ -960,7 +960,7 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1023,7 +1023,7 @@
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -1049,7 +1049,7 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -1112,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AC5">
         <v>10</v>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC6">
         <v>10</v>
@@ -1227,7 +1227,7 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1290,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1379,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AC8">
         <v>10</v>
@@ -1850,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC14">
         <v>10</v>
@@ -2117,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2180,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC17">
         <v>10</v>
@@ -2384,7 +2384,7 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC20">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2625,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC22">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AC23">
         <v>10</v>
@@ -2829,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -2892,7 +2892,7 @@
         <v>10</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC25">
         <v>10</v>
@@ -3007,7 +3007,7 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -3070,7 +3070,7 @@
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -3159,7 +3159,7 @@
         <v>10</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC28">
         <v>10</v>
@@ -3274,7 +3274,7 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -3337,7 +3337,7 @@
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3541,7 +3541,7 @@
         <v>8</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H33">
         <v>8</v>
@@ -3604,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AC33">
         <v>8</v>
@@ -3630,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -3693,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AC34">
         <v>10</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3882,22 +3882,25 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.800000000000001</v>
+      </c>
       <c r="I3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4114,7 +4117,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4174,7 +4177,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4254,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4314,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4394,7 +4397,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4454,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4534,7 +4537,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4594,7 +4597,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4674,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4734,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4814,7 +4817,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4874,7 +4877,7 @@
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4954,7 +4957,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5014,7 +5017,7 @@
         <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5094,7 +5097,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5154,7 +5157,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5234,7 +5237,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5294,7 +5297,7 @@
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5374,7 +5377,7 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5434,7 +5437,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5514,7 +5517,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5574,7 +5577,7 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5654,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5714,7 +5717,7 @@
         <v>8</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5794,7 +5797,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5854,7 +5857,7 @@
         <v>8</v>
       </c>
       <c r="F89" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5934,7 +5937,7 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5994,7 +5997,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6074,7 +6077,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6134,7 +6137,7 @@
         <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6214,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6274,7 +6277,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6354,7 +6357,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6414,7 +6417,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6494,7 +6497,7 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6554,7 +6557,7 @@
         <v>8</v>
       </c>
       <c r="F124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6634,7 +6637,7 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6694,7 +6697,7 @@
         <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6774,7 +6777,7 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6834,7 +6837,7 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6914,7 +6917,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6974,7 +6977,7 @@
         <v>8</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7054,7 +7057,7 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -7114,7 +7117,7 @@
         <v>8</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -7194,7 +7197,7 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -7254,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7334,7 +7337,7 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -7394,7 +7397,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -7474,7 +7477,7 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7534,7 +7537,7 @@
         <v>8</v>
       </c>
       <c r="F173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7614,7 +7617,7 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7674,7 +7677,7 @@
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7754,7 +7757,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7814,7 +7817,7 @@
         <v>8</v>
       </c>
       <c r="F187" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7894,7 +7897,7 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7954,7 +7957,7 @@
         <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -8034,7 +8037,7 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -8094,7 +8097,7 @@
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -8174,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -8234,7 +8237,7 @@
         <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -8314,7 +8317,7 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -8374,7 +8377,7 @@
         <v>8</v>
       </c>
       <c r="F215" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -8454,7 +8457,7 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -8514,7 +8517,7 @@
         <v>8</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -9162,7 +9165,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9197,22 +9200,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920088</v>
+        <v>19330051920085</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -9220,19 +9223,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920088</v>
+        <v>19330051920085</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -9243,22 +9246,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920090</v>
+        <v>19330051920102</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9266,22 +9269,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920090</v>
+        <v>19330051920102</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -9289,22 +9292,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920089</v>
+        <v>19330051920120</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -9312,19 +9315,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920089</v>
+        <v>19330051920120</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -9335,22 +9338,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920097</v>
+        <v>19330051920088</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -9358,19 +9361,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920097</v>
+        <v>19330051920090</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -9381,22 +9384,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920100</v>
+        <v>19330051920089</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -9404,19 +9407,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920100</v>
+        <v>19330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -9427,22 +9430,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920102</v>
+        <v>19330051920100</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -9450,19 +9453,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920102</v>
+        <v>19330051920103</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
@@ -9473,22 +9476,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920103</v>
+        <v>19330051920106</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -9496,19 +9499,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920103</v>
+        <v>19330051920107</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -9519,22 +9522,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920106</v>
+        <v>19330051920110</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -9542,19 +9545,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920106</v>
+        <v>19330051920115</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>54</v>
@@ -9565,185 +9568,24 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920107</v>
+        <v>19330051920121</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920110</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920110</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920115</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920115</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920121</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/5BEM - Estadisticos 20211.xlsx
+++ b/grupos/5BEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="141">
   <si>
     <t>Materia</t>
   </si>
@@ -182,12 +182,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Jiménez Nieto Enrique</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Jiménez Nieto Enrique</t>
-  </si>
-  <si>
     <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
@@ -218,114 +218,189 @@
     <t>AGUILAR</t>
   </si>
   <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>CITLAHUA</t>
+  </si>
+  <si>
+    <t>CONDADO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>TOCOHUA</t>
+  </si>
+  <si>
+    <t>TEXOCO</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GARATE</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ANTEMATE</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>AVELINO</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>ANGUIANO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>JOSE JAZAEL</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ELEAZAR RIGOBERTO</t>
+  </si>
+  <si>
+    <t>RAUL ARTURO</t>
+  </si>
+  <si>
+    <t>JOSUE ALEXIS</t>
+  </si>
+  <si>
+    <t>JOSUE</t>
+  </si>
+  <si>
+    <t>JAFET</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>AXEL MIGUEL</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>JOSE ALONSO</t>
+  </si>
+  <si>
+    <t>ARIAN ALEXIS</t>
+  </si>
+  <si>
+    <t>YARITZI</t>
+  </si>
+  <si>
+    <t>ROMARIO ALDAIR</t>
+  </si>
+  <si>
+    <t>YAMILET</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>ADOLFO</t>
+  </si>
+  <si>
     <t>CADEZA</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CITLAHUA</t>
-  </si>
-  <si>
-    <t>CONDADO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>FLORENCIO</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
     <t>JUAN</t>
   </si>
   <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
     <t>OCTAVIANO</t>
   </si>
   <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>TAPIA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>TOCOHUA</t>
-  </si>
-  <si>
-    <t>TEXOCO</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
     <t>GALLARDO</t>
   </si>
   <si>
-    <t>GARATE</t>
-  </si>
-  <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>ANTEMATE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>AVELINO</t>
-  </si>
-  <si>
     <t>DEL ANGEL</t>
   </si>
   <si>
@@ -335,30 +410,9 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>ANGUIANO</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>TETLA</t>
   </si>
   <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>JOSE JAZAEL</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
     <t>IRVING OTTONIEL</t>
   </si>
   <si>
@@ -368,42 +422,12 @@
     <t>BRANDON</t>
   </si>
   <si>
-    <t>ELEAZAR RIGOBERTO</t>
-  </si>
-  <si>
-    <t>RAUL ARTURO</t>
-  </si>
-  <si>
-    <t>JOSUE ALEXIS</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>JAFET</t>
-  </si>
-  <si>
     <t>JESUS ENRIQUE</t>
   </si>
   <si>
-    <t>JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
     <t>JUAN LUIS</t>
   </si>
   <si>
-    <t>AXEL MIGUEL</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>AXEL</t>
-  </si>
-  <si>
     <t>URIEL</t>
   </si>
   <si>
@@ -413,34 +437,10 @@
     <t>OSWALDO ENRIQUE</t>
   </si>
   <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
     <t>YAEL</t>
   </si>
   <si>
-    <t>JOSE ALONSO</t>
-  </si>
-  <si>
-    <t>ARIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>YARITZI</t>
-  </si>
-  <si>
-    <t>ROMARIO ALDAIR</t>
-  </si>
-  <si>
-    <t>YAMILET</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
     <t>JOSUE GILBERTO</t>
-  </si>
-  <si>
-    <t>ADOLFO</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA4">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA6">
         <v>10</v>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1284,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA7">
         <v>10</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA8">
         <v>10</v>
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1907,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA14">
         <v>10</v>
@@ -2022,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -2085,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA16">
         <v>10</v>
@@ -2111,7 +2111,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2174,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA17">
         <v>10</v>
@@ -2289,7 +2289,7 @@
         <v>9</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -2352,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA19">
         <v>8</v>
@@ -2378,7 +2378,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2441,7 +2441,7 @@
         <v>8</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA20">
         <v>10</v>
@@ -2556,7 +2556,7 @@
         <v>9</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2619,7 +2619,7 @@
         <v>9</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AA22">
         <v>10</v>
@@ -2645,7 +2645,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2708,7 +2708,7 @@
         <v>9</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA23">
         <v>10</v>
@@ -2823,7 +2823,7 @@
         <v>9</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -2886,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA25">
         <v>10</v>
@@ -3090,7 +3090,7 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -3153,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA28">
         <v>10</v>
@@ -3268,7 +3268,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -3331,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3535,7 +3535,7 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -3598,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA33">
         <v>8</v>
@@ -3624,7 +3624,7 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -3687,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA34">
         <v>10</v>
@@ -3713,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <v>-1</v>
@@ -3776,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -3853,27 +3853,30 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
+      </c>
       <c r="I2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3882,25 +3885,25 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>53.13</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3">
-        <v>50</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4070,7 +4073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4108,13 +4111,13 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -4128,250 +4131,250 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920085</v>
+        <v>19330051920092</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920085</v>
+        <v>19330051920092</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920085</v>
+        <v>19330051920092</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920084</v>
+        <v>19330051920092</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920084</v>
+        <v>19330051920091</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920084</v>
+        <v>19330051920091</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920084</v>
+        <v>19330051920091</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920084</v>
+        <v>19330051920091</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920084</v>
+        <v>19330051920091</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920084</v>
+        <v>19330051920091</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -4382,36 +4385,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920088</v>
+        <v>19330051920093</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920088</v>
+        <v>19330051920093</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -4422,39 +4425,39 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920088</v>
+        <v>19330051920093</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920088</v>
+        <v>19330051920094</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>54</v>
@@ -4462,139 +4465,139 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920088</v>
+        <v>19330051920094</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920088</v>
+        <v>19330051920094</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920088</v>
+        <v>19330051920094</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920090</v>
+        <v>19330051920094</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920090</v>
+        <v>19330051920094</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920090</v>
+        <v>19330051920094</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920090</v>
+        <v>19330051920095</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>54</v>
@@ -4602,359 +4605,359 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920090</v>
+        <v>19330051920095</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920090</v>
+        <v>19330051920095</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920090</v>
+        <v>19330051920095</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920089</v>
+        <v>19330051920095</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920089</v>
+        <v>19330051920095</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920089</v>
+        <v>19330051920098</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920089</v>
+        <v>19330051920098</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920089</v>
+        <v>19330051920098</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920089</v>
+        <v>19330051920098</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920089</v>
+        <v>19330051920098</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920092</v>
+        <v>19330051920098</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920092</v>
+        <v>19330051920098</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920092</v>
+        <v>19330051920099</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920092</v>
+        <v>19330051920099</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920092</v>
+        <v>19330051920099</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920092</v>
+        <v>19330051920101</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920092</v>
+        <v>19330051920101</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920091</v>
+        <v>19330051920101</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
@@ -4962,59 +4965,59 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920091</v>
+        <v>19330051920101</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920091</v>
+        <v>19330051920102</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920091</v>
+        <v>19330051920105</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>54</v>
@@ -5022,96 +5025,96 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920091</v>
+        <v>19330051920105</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920091</v>
+        <v>19330051920105</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920091</v>
+        <v>19330051920105</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -5122,16 +5125,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -5142,36 +5145,36 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -5182,16 +5185,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -5202,16 +5205,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920093</v>
+        <v>19330051920109</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -5222,36 +5225,36 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920094</v>
+        <v>19330051920112</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920094</v>
+        <v>19330051920112</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -5262,179 +5265,179 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920094</v>
+        <v>19330051920112</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920094</v>
+        <v>19330051920112</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920094</v>
+        <v>19330051920001</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920094</v>
+        <v>19330051920001</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920094</v>
+        <v>19330051920001</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920095</v>
+        <v>19330051920001</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920095</v>
+        <v>19330051920001</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920095</v>
+        <v>19330051920001</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920095</v>
+        <v>19330051920116</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
         <v>54</v>
@@ -5442,36 +5445,36 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920095</v>
+        <v>19330051920116</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920095</v>
+        <v>19330051920116</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -5482,16 +5485,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920095</v>
+        <v>19330051920116</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -5502,256 +5505,256 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920097</v>
+        <v>19330051920117</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920097</v>
+        <v>19330051920117</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920097</v>
+        <v>19330051920118</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F77" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920097</v>
+        <v>19330051920119</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920098</v>
+        <v>19330051920119</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920098</v>
+        <v>19330051920119</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920098</v>
+        <v>19330051920119</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920098</v>
+        <v>19330051920120</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920098</v>
+        <v>19330051920122</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920098</v>
+        <v>19330051920122</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -5762,2821 +5765,21 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920098</v>
+        <v>19330051920122</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>19330051920099</v>
-      </c>
-      <c r="B86" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>19330051920099</v>
-      </c>
-      <c r="B87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>19330051920099</v>
-      </c>
-      <c r="B88" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>19330051920099</v>
-      </c>
-      <c r="B89" t="s">
-        <v>74</v>
-      </c>
-      <c r="C89" t="s">
-        <v>97</v>
-      </c>
-      <c r="D89" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920099</v>
-      </c>
-      <c r="B90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D90" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920099</v>
-      </c>
-      <c r="B91" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" t="s">
-        <v>97</v>
-      </c>
-      <c r="D91" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920099</v>
-      </c>
-      <c r="B92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C92" t="s">
-        <v>97</v>
-      </c>
-      <c r="D92" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920100</v>
-      </c>
-      <c r="B93" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D93" t="s">
-        <v>124</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920100</v>
-      </c>
-      <c r="B94" t="s">
-        <v>74</v>
-      </c>
-      <c r="C94" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920100</v>
-      </c>
-      <c r="B95" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" t="s">
-        <v>124</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920100</v>
-      </c>
-      <c r="B97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>75</v>
-      </c>
-      <c r="C102" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920101</v>
-      </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920101</v>
-      </c>
-      <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" t="s">
-        <v>125</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920101</v>
-      </c>
-      <c r="B106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" t="s">
-        <v>125</v>
-      </c>
-      <c r="E106" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920102</v>
-      </c>
-      <c r="B107" t="s">
-        <v>75</v>
-      </c>
-      <c r="C107" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" t="s">
-        <v>126</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920102</v>
-      </c>
-      <c r="B108" t="s">
-        <v>75</v>
-      </c>
-      <c r="C108" t="s">
-        <v>100</v>
-      </c>
-      <c r="D108" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920102</v>
-      </c>
-      <c r="B109" t="s">
-        <v>75</v>
-      </c>
-      <c r="C109" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" t="s">
-        <v>126</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920102</v>
-      </c>
-      <c r="B110" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" t="s">
-        <v>126</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920102</v>
-      </c>
-      <c r="B111" t="s">
-        <v>75</v>
-      </c>
-      <c r="C111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920102</v>
-      </c>
-      <c r="B112" t="s">
-        <v>75</v>
-      </c>
-      <c r="C112" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" t="s">
-        <v>126</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920102</v>
-      </c>
-      <c r="B113" t="s">
-        <v>75</v>
-      </c>
-      <c r="C113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" t="s">
-        <v>126</v>
-      </c>
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-      <c r="F113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920105</v>
-      </c>
-      <c r="B114" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" t="s">
-        <v>127</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920105</v>
-      </c>
-      <c r="B115" t="s">
-        <v>76</v>
-      </c>
-      <c r="C115" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" t="s">
-        <v>127</v>
-      </c>
-      <c r="E115" t="s">
-        <v>5</v>
-      </c>
-      <c r="F115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920105</v>
-      </c>
-      <c r="B116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920105</v>
-      </c>
-      <c r="B117" t="s">
-        <v>76</v>
-      </c>
-      <c r="C117" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" t="s">
-        <v>127</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920105</v>
-      </c>
-      <c r="B118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" t="s">
-        <v>127</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920105</v>
-      </c>
-      <c r="B119" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D119" t="s">
-        <v>127</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920105</v>
-      </c>
-      <c r="B120" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" t="s">
-        <v>101</v>
-      </c>
-      <c r="D120" t="s">
-        <v>127</v>
-      </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920103</v>
-      </c>
-      <c r="B121" t="s">
-        <v>77</v>
-      </c>
-      <c r="C121" t="s">
-        <v>102</v>
-      </c>
-      <c r="D121" t="s">
-        <v>128</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920103</v>
-      </c>
-      <c r="B122" t="s">
-        <v>77</v>
-      </c>
-      <c r="C122" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122" t="s">
-        <v>128</v>
-      </c>
-      <c r="E122" t="s">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920103</v>
-      </c>
-      <c r="B123" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" t="s">
-        <v>102</v>
-      </c>
-      <c r="D123" t="s">
-        <v>128</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920103</v>
-      </c>
-      <c r="B124" t="s">
-        <v>77</v>
-      </c>
-      <c r="C124" t="s">
-        <v>102</v>
-      </c>
-      <c r="D124" t="s">
-        <v>128</v>
-      </c>
-      <c r="E124" t="s">
-        <v>8</v>
-      </c>
-      <c r="F124" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920103</v>
-      </c>
-      <c r="B125" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" t="s">
-        <v>128</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920103</v>
-      </c>
-      <c r="B126" t="s">
-        <v>77</v>
-      </c>
-      <c r="C126" t="s">
-        <v>102</v>
-      </c>
-      <c r="D126" t="s">
-        <v>128</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920103</v>
-      </c>
-      <c r="B127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" t="s">
-        <v>102</v>
-      </c>
-      <c r="D127" t="s">
-        <v>128</v>
-      </c>
-      <c r="E127" t="s">
-        <v>11</v>
-      </c>
-      <c r="F127" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920106</v>
-      </c>
-      <c r="B128" t="s">
-        <v>78</v>
-      </c>
-      <c r="C128" t="s">
-        <v>103</v>
-      </c>
-      <c r="D128" t="s">
-        <v>129</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920106</v>
-      </c>
-      <c r="B129" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" t="s">
-        <v>103</v>
-      </c>
-      <c r="D129" t="s">
-        <v>129</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920106</v>
-      </c>
-      <c r="B130" t="s">
-        <v>78</v>
-      </c>
-      <c r="C130" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130" t="s">
-        <v>129</v>
-      </c>
-      <c r="E130" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920106</v>
-      </c>
-      <c r="B131" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" t="s">
-        <v>103</v>
-      </c>
-      <c r="D131" t="s">
-        <v>129</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920106</v>
-      </c>
-      <c r="B132" t="s">
-        <v>78</v>
-      </c>
-      <c r="C132" t="s">
-        <v>103</v>
-      </c>
-      <c r="D132" t="s">
-        <v>129</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920106</v>
-      </c>
-      <c r="B133" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" t="s">
-        <v>103</v>
-      </c>
-      <c r="D133" t="s">
-        <v>129</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920106</v>
-      </c>
-      <c r="B134" t="s">
-        <v>78</v>
-      </c>
-      <c r="C134" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134" t="s">
-        <v>129</v>
-      </c>
-      <c r="E134" t="s">
-        <v>11</v>
-      </c>
-      <c r="F134" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920107</v>
-      </c>
-      <c r="B135" t="s">
-        <v>79</v>
-      </c>
-      <c r="C135" t="s">
-        <v>72</v>
-      </c>
-      <c r="D135" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920107</v>
-      </c>
-      <c r="B136" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" t="s">
-        <v>72</v>
-      </c>
-      <c r="D136" t="s">
-        <v>130</v>
-      </c>
-      <c r="E136" t="s">
-        <v>5</v>
-      </c>
-      <c r="F136" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920107</v>
-      </c>
-      <c r="B137" t="s">
-        <v>79</v>
-      </c>
-      <c r="C137" t="s">
-        <v>72</v>
-      </c>
-      <c r="D137" t="s">
-        <v>130</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920107</v>
-      </c>
-      <c r="B138" t="s">
-        <v>79</v>
-      </c>
-      <c r="C138" t="s">
-        <v>72</v>
-      </c>
-      <c r="D138" t="s">
-        <v>130</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920107</v>
-      </c>
-      <c r="B139" t="s">
-        <v>79</v>
-      </c>
-      <c r="C139" t="s">
-        <v>72</v>
-      </c>
-      <c r="D139" t="s">
-        <v>130</v>
-      </c>
-      <c r="E139" t="s">
-        <v>7</v>
-      </c>
-      <c r="F139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920107</v>
-      </c>
-      <c r="B140" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" t="s">
-        <v>72</v>
-      </c>
-      <c r="D140" t="s">
-        <v>130</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920107</v>
-      </c>
-      <c r="B141" t="s">
-        <v>79</v>
-      </c>
-      <c r="C141" t="s">
-        <v>72</v>
-      </c>
-      <c r="D141" t="s">
-        <v>130</v>
-      </c>
-      <c r="E141" t="s">
-        <v>11</v>
-      </c>
-      <c r="F141" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920109</v>
-      </c>
-      <c r="B142" t="s">
-        <v>80</v>
-      </c>
-      <c r="C142" t="s">
-        <v>74</v>
-      </c>
-      <c r="D142" t="s">
-        <v>131</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920109</v>
-      </c>
-      <c r="B143" t="s">
-        <v>80</v>
-      </c>
-      <c r="C143" t="s">
-        <v>74</v>
-      </c>
-      <c r="D143" t="s">
-        <v>131</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920109</v>
-      </c>
-      <c r="B144" t="s">
-        <v>80</v>
-      </c>
-      <c r="C144" t="s">
-        <v>74</v>
-      </c>
-      <c r="D144" t="s">
-        <v>131</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920109</v>
-      </c>
-      <c r="B145" t="s">
-        <v>80</v>
-      </c>
-      <c r="C145" t="s">
-        <v>74</v>
-      </c>
-      <c r="D145" t="s">
-        <v>131</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920109</v>
-      </c>
-      <c r="B146" t="s">
-        <v>80</v>
-      </c>
-      <c r="C146" t="s">
-        <v>74</v>
-      </c>
-      <c r="D146" t="s">
-        <v>131</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920109</v>
-      </c>
-      <c r="B147" t="s">
-        <v>80</v>
-      </c>
-      <c r="C147" t="s">
-        <v>74</v>
-      </c>
-      <c r="D147" t="s">
-        <v>131</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F147" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>19330051920109</v>
-      </c>
-      <c r="B148" t="s">
-        <v>80</v>
-      </c>
-      <c r="C148" t="s">
-        <v>74</v>
-      </c>
-      <c r="D148" t="s">
-        <v>131</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
-      </c>
-      <c r="F148" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920110</v>
-      </c>
-      <c r="B149" t="s">
-        <v>81</v>
-      </c>
-      <c r="C149" t="s">
-        <v>104</v>
-      </c>
-      <c r="D149" t="s">
-        <v>132</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920110</v>
-      </c>
-      <c r="B150" t="s">
-        <v>81</v>
-      </c>
-      <c r="C150" t="s">
-        <v>104</v>
-      </c>
-      <c r="D150" t="s">
-        <v>132</v>
-      </c>
-      <c r="E150" t="s">
-        <v>5</v>
-      </c>
-      <c r="F150" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920110</v>
-      </c>
-      <c r="B151" t="s">
-        <v>81</v>
-      </c>
-      <c r="C151" t="s">
-        <v>104</v>
-      </c>
-      <c r="D151" t="s">
-        <v>132</v>
-      </c>
-      <c r="E151" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920110</v>
-      </c>
-      <c r="B152" t="s">
-        <v>81</v>
-      </c>
-      <c r="C152" t="s">
-        <v>104</v>
-      </c>
-      <c r="D152" t="s">
-        <v>132</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920110</v>
-      </c>
-      <c r="B153" t="s">
-        <v>81</v>
-      </c>
-      <c r="C153" t="s">
-        <v>104</v>
-      </c>
-      <c r="D153" t="s">
-        <v>132</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920110</v>
-      </c>
-      <c r="B154" t="s">
-        <v>81</v>
-      </c>
-      <c r="C154" t="s">
-        <v>104</v>
-      </c>
-      <c r="D154" t="s">
-        <v>132</v>
-      </c>
-      <c r="E154" t="s">
-        <v>9</v>
-      </c>
-      <c r="F154" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920110</v>
-      </c>
-      <c r="B155" t="s">
-        <v>81</v>
-      </c>
-      <c r="C155" t="s">
-        <v>104</v>
-      </c>
-      <c r="D155" t="s">
-        <v>132</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920112</v>
-      </c>
-      <c r="B156" t="s">
-        <v>82</v>
-      </c>
-      <c r="C156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D156" t="s">
-        <v>133</v>
-      </c>
-      <c r="E156" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920112</v>
-      </c>
-      <c r="B157" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" t="s">
-        <v>72</v>
-      </c>
-      <c r="D157" t="s">
-        <v>133</v>
-      </c>
-      <c r="E157" t="s">
-        <v>5</v>
-      </c>
-      <c r="F157" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920112</v>
-      </c>
-      <c r="B158" t="s">
-        <v>82</v>
-      </c>
-      <c r="C158" t="s">
-        <v>72</v>
-      </c>
-      <c r="D158" t="s">
-        <v>133</v>
-      </c>
-      <c r="E158" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920112</v>
-      </c>
-      <c r="B159" t="s">
-        <v>82</v>
-      </c>
-      <c r="C159" t="s">
-        <v>72</v>
-      </c>
-      <c r="D159" t="s">
-        <v>133</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920112</v>
-      </c>
-      <c r="B160" t="s">
-        <v>82</v>
-      </c>
-      <c r="C160" t="s">
-        <v>72</v>
-      </c>
-      <c r="D160" t="s">
-        <v>133</v>
-      </c>
-      <c r="E160" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920112</v>
-      </c>
-      <c r="B161" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" t="s">
-        <v>72</v>
-      </c>
-      <c r="D161" t="s">
-        <v>133</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920112</v>
-      </c>
-      <c r="B162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" t="s">
-        <v>72</v>
-      </c>
-      <c r="D162" t="s">
-        <v>133</v>
-      </c>
-      <c r="E162" t="s">
-        <v>11</v>
-      </c>
-      <c r="F162" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920001</v>
-      </c>
-      <c r="B163" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" t="s">
-        <v>105</v>
-      </c>
-      <c r="D163" t="s">
-        <v>134</v>
-      </c>
-      <c r="E163" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920001</v>
-      </c>
-      <c r="B164" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" t="s">
-        <v>105</v>
-      </c>
-      <c r="D164" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920001</v>
-      </c>
-      <c r="B165" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" t="s">
-        <v>105</v>
-      </c>
-      <c r="D165" t="s">
-        <v>134</v>
-      </c>
-      <c r="E165" t="s">
-        <v>6</v>
-      </c>
-      <c r="F165" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920001</v>
-      </c>
-      <c r="B166" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" t="s">
-        <v>105</v>
-      </c>
-      <c r="D166" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920001</v>
-      </c>
-      <c r="B167" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" t="s">
-        <v>105</v>
-      </c>
-      <c r="D167" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167" t="s">
-        <v>7</v>
-      </c>
-      <c r="F167" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920001</v>
-      </c>
-      <c r="B168" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168" t="s">
-        <v>105</v>
-      </c>
-      <c r="D168" t="s">
-        <v>134</v>
-      </c>
-      <c r="E168" t="s">
-        <v>9</v>
-      </c>
-      <c r="F168" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920001</v>
-      </c>
-      <c r="B169" t="s">
-        <v>83</v>
-      </c>
-      <c r="C169" t="s">
-        <v>105</v>
-      </c>
-      <c r="D169" t="s">
-        <v>134</v>
-      </c>
-      <c r="E169" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920115</v>
-      </c>
-      <c r="B170" t="s">
-        <v>84</v>
-      </c>
-      <c r="C170" t="s">
-        <v>77</v>
-      </c>
-      <c r="D170" t="s">
-        <v>112</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920115</v>
-      </c>
-      <c r="B171" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" t="s">
-        <v>77</v>
-      </c>
-      <c r="D171" t="s">
-        <v>112</v>
-      </c>
-      <c r="E171" t="s">
-        <v>5</v>
-      </c>
-      <c r="F171" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920115</v>
-      </c>
-      <c r="B172" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" t="s">
-        <v>77</v>
-      </c>
-      <c r="D172" t="s">
-        <v>112</v>
-      </c>
-      <c r="E172" t="s">
-        <v>6</v>
-      </c>
-      <c r="F172" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920115</v>
-      </c>
-      <c r="B173" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" t="s">
-        <v>77</v>
-      </c>
-      <c r="D173" t="s">
-        <v>112</v>
-      </c>
-      <c r="E173" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920115</v>
-      </c>
-      <c r="B174" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" t="s">
-        <v>77</v>
-      </c>
-      <c r="D174" t="s">
-        <v>112</v>
-      </c>
-      <c r="E174" t="s">
-        <v>7</v>
-      </c>
-      <c r="F174" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920115</v>
-      </c>
-      <c r="B175" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" t="s">
-        <v>77</v>
-      </c>
-      <c r="D175" t="s">
-        <v>112</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920115</v>
-      </c>
-      <c r="B176" t="s">
-        <v>84</v>
-      </c>
-      <c r="C176" t="s">
-        <v>77</v>
-      </c>
-      <c r="D176" t="s">
-        <v>112</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920116</v>
-      </c>
-      <c r="B177" t="s">
-        <v>85</v>
-      </c>
-      <c r="C177" t="s">
-        <v>106</v>
-      </c>
-      <c r="D177" t="s">
-        <v>119</v>
-      </c>
-      <c r="E177" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920116</v>
-      </c>
-      <c r="B178" t="s">
-        <v>85</v>
-      </c>
-      <c r="C178" t="s">
-        <v>106</v>
-      </c>
-      <c r="D178" t="s">
-        <v>119</v>
-      </c>
-      <c r="E178" t="s">
-        <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920116</v>
-      </c>
-      <c r="B179" t="s">
-        <v>85</v>
-      </c>
-      <c r="C179" t="s">
-        <v>106</v>
-      </c>
-      <c r="D179" t="s">
-        <v>119</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920116</v>
-      </c>
-      <c r="B180" t="s">
-        <v>85</v>
-      </c>
-      <c r="C180" t="s">
-        <v>106</v>
-      </c>
-      <c r="D180" t="s">
-        <v>119</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920116</v>
-      </c>
-      <c r="B181" t="s">
-        <v>85</v>
-      </c>
-      <c r="C181" t="s">
-        <v>106</v>
-      </c>
-      <c r="D181" t="s">
-        <v>119</v>
-      </c>
-      <c r="E181" t="s">
-        <v>7</v>
-      </c>
-      <c r="F181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920116</v>
-      </c>
-      <c r="B182" t="s">
-        <v>85</v>
-      </c>
-      <c r="C182" t="s">
-        <v>106</v>
-      </c>
-      <c r="D182" t="s">
-        <v>119</v>
-      </c>
-      <c r="E182" t="s">
-        <v>9</v>
-      </c>
-      <c r="F182" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920116</v>
-      </c>
-      <c r="B183" t="s">
-        <v>85</v>
-      </c>
-      <c r="C183" t="s">
-        <v>106</v>
-      </c>
-      <c r="D183" t="s">
-        <v>119</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920117</v>
-      </c>
-      <c r="B184" t="s">
-        <v>86</v>
-      </c>
-      <c r="C184" t="s">
-        <v>71</v>
-      </c>
-      <c r="D184" t="s">
-        <v>135</v>
-      </c>
-      <c r="E184" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920117</v>
-      </c>
-      <c r="B185" t="s">
-        <v>86</v>
-      </c>
-      <c r="C185" t="s">
-        <v>71</v>
-      </c>
-      <c r="D185" t="s">
-        <v>135</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920117</v>
-      </c>
-      <c r="B186" t="s">
-        <v>86</v>
-      </c>
-      <c r="C186" t="s">
-        <v>71</v>
-      </c>
-      <c r="D186" t="s">
-        <v>135</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920117</v>
-      </c>
-      <c r="B187" t="s">
-        <v>86</v>
-      </c>
-      <c r="C187" t="s">
-        <v>71</v>
-      </c>
-      <c r="D187" t="s">
-        <v>135</v>
-      </c>
-      <c r="E187" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920117</v>
-      </c>
-      <c r="B188" t="s">
-        <v>86</v>
-      </c>
-      <c r="C188" t="s">
-        <v>71</v>
-      </c>
-      <c r="D188" t="s">
-        <v>135</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920117</v>
-      </c>
-      <c r="B189" t="s">
-        <v>86</v>
-      </c>
-      <c r="C189" t="s">
-        <v>71</v>
-      </c>
-      <c r="D189" t="s">
-        <v>135</v>
-      </c>
-      <c r="E189" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920117</v>
-      </c>
-      <c r="B190" t="s">
-        <v>86</v>
-      </c>
-      <c r="C190" t="s">
-        <v>71</v>
-      </c>
-      <c r="D190" t="s">
-        <v>135</v>
-      </c>
-      <c r="E190" t="s">
-        <v>11</v>
-      </c>
-      <c r="F190" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920118</v>
-      </c>
-      <c r="B191" t="s">
-        <v>87</v>
-      </c>
-      <c r="C191" t="s">
-        <v>77</v>
-      </c>
-      <c r="D191" t="s">
-        <v>136</v>
-      </c>
-      <c r="E191" t="s">
-        <v>10</v>
-      </c>
-      <c r="F191" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920118</v>
-      </c>
-      <c r="B192" t="s">
-        <v>87</v>
-      </c>
-      <c r="C192" t="s">
-        <v>77</v>
-      </c>
-      <c r="D192" t="s">
-        <v>136</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920118</v>
-      </c>
-      <c r="B193" t="s">
-        <v>87</v>
-      </c>
-      <c r="C193" t="s">
-        <v>77</v>
-      </c>
-      <c r="D193" t="s">
-        <v>136</v>
-      </c>
-      <c r="E193" t="s">
-        <v>6</v>
-      </c>
-      <c r="F193" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920118</v>
-      </c>
-      <c r="B194" t="s">
-        <v>87</v>
-      </c>
-      <c r="C194" t="s">
-        <v>77</v>
-      </c>
-      <c r="D194" t="s">
-        <v>136</v>
-      </c>
-      <c r="E194" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920118</v>
-      </c>
-      <c r="B195" t="s">
-        <v>87</v>
-      </c>
-      <c r="C195" t="s">
-        <v>77</v>
-      </c>
-      <c r="D195" t="s">
-        <v>136</v>
-      </c>
-      <c r="E195" t="s">
-        <v>7</v>
-      </c>
-      <c r="F195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920118</v>
-      </c>
-      <c r="B196" t="s">
-        <v>87</v>
-      </c>
-      <c r="C196" t="s">
-        <v>77</v>
-      </c>
-      <c r="D196" t="s">
-        <v>136</v>
-      </c>
-      <c r="E196" t="s">
-        <v>9</v>
-      </c>
-      <c r="F196" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920118</v>
-      </c>
-      <c r="B197" t="s">
-        <v>87</v>
-      </c>
-      <c r="C197" t="s">
-        <v>77</v>
-      </c>
-      <c r="D197" t="s">
-        <v>136</v>
-      </c>
-      <c r="E197" t="s">
-        <v>11</v>
-      </c>
-      <c r="F197" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920119</v>
-      </c>
-      <c r="B198" t="s">
-        <v>88</v>
-      </c>
-      <c r="C198" t="s">
-        <v>107</v>
-      </c>
-      <c r="D198" t="s">
-        <v>137</v>
-      </c>
-      <c r="E198" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920119</v>
-      </c>
-      <c r="B199" t="s">
-        <v>88</v>
-      </c>
-      <c r="C199" t="s">
-        <v>107</v>
-      </c>
-      <c r="D199" t="s">
-        <v>137</v>
-      </c>
-      <c r="E199" t="s">
-        <v>5</v>
-      </c>
-      <c r="F199" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>19330051920119</v>
-      </c>
-      <c r="B200" t="s">
-        <v>88</v>
-      </c>
-      <c r="C200" t="s">
-        <v>107</v>
-      </c>
-      <c r="D200" t="s">
-        <v>137</v>
-      </c>
-      <c r="E200" t="s">
-        <v>6</v>
-      </c>
-      <c r="F200" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>19330051920119</v>
-      </c>
-      <c r="B201" t="s">
-        <v>88</v>
-      </c>
-      <c r="C201" t="s">
-        <v>107</v>
-      </c>
-      <c r="D201" t="s">
-        <v>137</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>19330051920119</v>
-      </c>
-      <c r="B202" t="s">
-        <v>88</v>
-      </c>
-      <c r="C202" t="s">
-        <v>107</v>
-      </c>
-      <c r="D202" t="s">
-        <v>137</v>
-      </c>
-      <c r="E202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>19330051920119</v>
-      </c>
-      <c r="B203" t="s">
-        <v>88</v>
-      </c>
-      <c r="C203" t="s">
-        <v>107</v>
-      </c>
-      <c r="D203" t="s">
-        <v>137</v>
-      </c>
-      <c r="E203" t="s">
-        <v>9</v>
-      </c>
-      <c r="F203" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>19330051920119</v>
-      </c>
-      <c r="B204" t="s">
-        <v>88</v>
-      </c>
-      <c r="C204" t="s">
-        <v>107</v>
-      </c>
-      <c r="D204" t="s">
-        <v>137</v>
-      </c>
-      <c r="E204" t="s">
-        <v>11</v>
-      </c>
-      <c r="F204" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>19330051920120</v>
-      </c>
-      <c r="B205" t="s">
-        <v>89</v>
-      </c>
-      <c r="C205" t="s">
-        <v>108</v>
-      </c>
-      <c r="D205" t="s">
-        <v>138</v>
-      </c>
-      <c r="E205" t="s">
-        <v>10</v>
-      </c>
-      <c r="F205" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>19330051920120</v>
-      </c>
-      <c r="B206" t="s">
-        <v>89</v>
-      </c>
-      <c r="C206" t="s">
-        <v>108</v>
-      </c>
-      <c r="D206" t="s">
-        <v>138</v>
-      </c>
-      <c r="E206" t="s">
-        <v>5</v>
-      </c>
-      <c r="F206" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>19330051920120</v>
-      </c>
-      <c r="B207" t="s">
-        <v>89</v>
-      </c>
-      <c r="C207" t="s">
-        <v>108</v>
-      </c>
-      <c r="D207" t="s">
-        <v>138</v>
-      </c>
-      <c r="E207" t="s">
-        <v>6</v>
-      </c>
-      <c r="F207" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>19330051920120</v>
-      </c>
-      <c r="B208" t="s">
-        <v>89</v>
-      </c>
-      <c r="C208" t="s">
-        <v>108</v>
-      </c>
-      <c r="D208" t="s">
-        <v>138</v>
-      </c>
-      <c r="E208" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>19330051920120</v>
-      </c>
-      <c r="B209" t="s">
-        <v>89</v>
-      </c>
-      <c r="C209" t="s">
-        <v>108</v>
-      </c>
-      <c r="D209" t="s">
-        <v>138</v>
-      </c>
-      <c r="E209" t="s">
-        <v>7</v>
-      </c>
-      <c r="F209" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>19330051920120</v>
-      </c>
-      <c r="B210" t="s">
-        <v>89</v>
-      </c>
-      <c r="C210" t="s">
-        <v>108</v>
-      </c>
-      <c r="D210" t="s">
-        <v>138</v>
-      </c>
-      <c r="E210" t="s">
-        <v>9</v>
-      </c>
-      <c r="F210" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>19330051920120</v>
-      </c>
-      <c r="B211" t="s">
-        <v>89</v>
-      </c>
-      <c r="C211" t="s">
-        <v>108</v>
-      </c>
-      <c r="D211" t="s">
-        <v>138</v>
-      </c>
-      <c r="E211" t="s">
-        <v>11</v>
-      </c>
-      <c r="F211" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>19330051920121</v>
-      </c>
-      <c r="B212" t="s">
-        <v>90</v>
-      </c>
-      <c r="C212" t="s">
-        <v>109</v>
-      </c>
-      <c r="D212" t="s">
-        <v>139</v>
-      </c>
-      <c r="E212" t="s">
-        <v>10</v>
-      </c>
-      <c r="F212" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>19330051920121</v>
-      </c>
-      <c r="B213" t="s">
-        <v>90</v>
-      </c>
-      <c r="C213" t="s">
-        <v>109</v>
-      </c>
-      <c r="D213" t="s">
-        <v>139</v>
-      </c>
-      <c r="E213" t="s">
-        <v>5</v>
-      </c>
-      <c r="F213" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>19330051920121</v>
-      </c>
-      <c r="B214" t="s">
-        <v>90</v>
-      </c>
-      <c r="C214" t="s">
-        <v>109</v>
-      </c>
-      <c r="D214" t="s">
-        <v>139</v>
-      </c>
-      <c r="E214" t="s">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>19330051920121</v>
-      </c>
-      <c r="B215" t="s">
-        <v>90</v>
-      </c>
-      <c r="C215" t="s">
-        <v>109</v>
-      </c>
-      <c r="D215" t="s">
-        <v>139</v>
-      </c>
-      <c r="E215" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>19330051920121</v>
-      </c>
-      <c r="B216" t="s">
-        <v>90</v>
-      </c>
-      <c r="C216" t="s">
-        <v>109</v>
-      </c>
-      <c r="D216" t="s">
-        <v>139</v>
-      </c>
-      <c r="E216" t="s">
-        <v>7</v>
-      </c>
-      <c r="F216" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>19330051920121</v>
-      </c>
-      <c r="B217" t="s">
-        <v>90</v>
-      </c>
-      <c r="C217" t="s">
-        <v>109</v>
-      </c>
-      <c r="D217" t="s">
-        <v>139</v>
-      </c>
-      <c r="E217" t="s">
-        <v>9</v>
-      </c>
-      <c r="F217" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>19330051920121</v>
-      </c>
-      <c r="B218" t="s">
-        <v>90</v>
-      </c>
-      <c r="C218" t="s">
-        <v>109</v>
-      </c>
-      <c r="D218" t="s">
-        <v>139</v>
-      </c>
-      <c r="E218" t="s">
-        <v>11</v>
-      </c>
-      <c r="F218" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>19330051920122</v>
-      </c>
-      <c r="B219" t="s">
-        <v>91</v>
-      </c>
-      <c r="C219" t="s">
-        <v>110</v>
-      </c>
-      <c r="D219" t="s">
-        <v>140</v>
-      </c>
-      <c r="E219" t="s">
-        <v>10</v>
-      </c>
-      <c r="F219" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>19330051920122</v>
-      </c>
-      <c r="B220" t="s">
-        <v>91</v>
-      </c>
-      <c r="C220" t="s">
-        <v>110</v>
-      </c>
-      <c r="D220" t="s">
-        <v>140</v>
-      </c>
-      <c r="E220" t="s">
-        <v>5</v>
-      </c>
-      <c r="F220" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>19330051920122</v>
-      </c>
-      <c r="B221" t="s">
-        <v>91</v>
-      </c>
-      <c r="C221" t="s">
-        <v>110</v>
-      </c>
-      <c r="D221" t="s">
-        <v>140</v>
-      </c>
-      <c r="E221" t="s">
-        <v>6</v>
-      </c>
-      <c r="F221" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>19330051920122</v>
-      </c>
-      <c r="B222" t="s">
-        <v>91</v>
-      </c>
-      <c r="C222" t="s">
-        <v>110</v>
-      </c>
-      <c r="D222" t="s">
-        <v>140</v>
-      </c>
-      <c r="E222" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>19330051920122</v>
-      </c>
-      <c r="B223" t="s">
-        <v>91</v>
-      </c>
-      <c r="C223" t="s">
-        <v>110</v>
-      </c>
-      <c r="D223" t="s">
-        <v>140</v>
-      </c>
-      <c r="E223" t="s">
-        <v>7</v>
-      </c>
-      <c r="F223" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>19330051920122</v>
-      </c>
-      <c r="B224" t="s">
-        <v>91</v>
-      </c>
-      <c r="C224" t="s">
-        <v>110</v>
-      </c>
-      <c r="D224" t="s">
-        <v>140</v>
-      </c>
-      <c r="E224" t="s">
-        <v>9</v>
-      </c>
-      <c r="F224" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>19330051920122</v>
-      </c>
-      <c r="B225" t="s">
-        <v>91</v>
-      </c>
-      <c r="C225" t="s">
-        <v>110</v>
-      </c>
-      <c r="D225" t="s">
-        <v>140</v>
-      </c>
-      <c r="E225" t="s">
-        <v>11</v>
-      </c>
-      <c r="F225" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8616,16 +5819,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920085</v>
+        <v>19330051920094</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -8633,16 +5836,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920084</v>
+        <v>19330051920098</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -8650,16 +5853,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920088</v>
+        <v>19330051920109</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -8667,495 +5870,495 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920090</v>
+        <v>19330051920091</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920089</v>
+        <v>19330051920095</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920092</v>
+        <v>19330051920001</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920091</v>
+        <v>19330051920092</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920093</v>
+        <v>19330051920101</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920094</v>
+        <v>19330051920105</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920095</v>
+        <v>19330051920112</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920097</v>
+        <v>19330051920116</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920098</v>
+        <v>19330051920118</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920099</v>
+        <v>19330051920119</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920100</v>
+        <v>19330051920093</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920101</v>
+        <v>19330051920099</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920102</v>
+        <v>19330051920122</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920105</v>
+        <v>19330051920085</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920103</v>
+        <v>19330051920084</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920106</v>
+        <v>19330051920117</v>
       </c>
       <c r="B20" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920107</v>
+        <v>19330051920102</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920109</v>
+        <v>19330051920120</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920110</v>
+        <v>19330051920088</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920112</v>
+        <v>19330051920090</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920001</v>
+        <v>19330051920089</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920115</v>
+        <v>19330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920116</v>
+        <v>19330051920100</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920117</v>
+        <v>19330051920103</v>
       </c>
       <c r="B28" t="s">
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920118</v>
+        <v>19330051920106</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920119</v>
+        <v>19330051920107</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920120</v>
+        <v>19330051920110</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920121</v>
+        <v>19330051920115</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920122</v>
+        <v>19330051920121</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>140</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9165,7 +6368,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9206,10 +6409,10 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -9229,16 +6432,16 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -9246,22 +6449,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920102</v>
+        <v>19330051920084</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -9269,22 +6472,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920102</v>
+        <v>19330051920084</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -9292,22 +6495,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920120</v>
+        <v>19330051920117</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -9315,22 +6518,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920120</v>
+        <v>19330051920117</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -9338,19 +6541,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920088</v>
+        <v>19330051920102</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -9361,231 +6564,24 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920090</v>
+        <v>19330051920120</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920089</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>19330051920097</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920107</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920115</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920121</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/5BEM - Estadisticos 20211.xlsx
+++ b/grupos/5BEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="141">
   <si>
     <t>Materia</t>
   </si>
@@ -185,10 +185,10 @@
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
+    <t>Vargas Olvera Francisco Eduardo</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Vargas Olvera Francisco Eduardo</t>
   </si>
   <si>
     <t>Ortega Valle Manuel</t>
@@ -1043,7 +1043,7 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1106,7 +1106,7 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA5">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1640,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA11">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>-1</v>
@@ -1729,7 +1729,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1755,7 +1755,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -1818,7 +1818,7 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -2200,7 +2200,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2263,7 +2263,7 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA18">
         <v>10</v>
@@ -2467,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>9</v>
@@ -2530,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA21">
         <v>9</v>
@@ -2912,7 +2912,7 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -2975,7 +2975,7 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA26">
         <v>8</v>
@@ -3001,7 +3001,7 @@
         <v>-1</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>-1</v>
@@ -3064,7 +3064,7 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AA27">
         <v>-1</v>
@@ -3179,7 +3179,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>-1</v>
@@ -3242,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA29">
         <v>-1</v>
@@ -3357,7 +3357,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>10</v>
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA31">
         <v>10</v>
@@ -3446,7 +3446,7 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -3509,7 +3509,7 @@
         <v>7</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA32">
         <v>10</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -3885,30 +3885,30 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>53.13</v>
+        <v>59.38</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>46.88</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -3917,25 +3917,25 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>59.38</v>
+        <v>62.5</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>40.63</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4073,7 +4073,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4117,30 +4117,30 @@
         <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920085</v>
+        <v>19330051920084</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4157,7 +4157,7 @@
         <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -4165,22 +4165,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920084</v>
+        <v>19330051920092</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4197,10 +4197,10 @@
         <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4217,10 +4217,10 @@
         <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4237,30 +4237,30 @@
         <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920092</v>
+        <v>19330051920091</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4277,10 +4277,10 @@
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4297,10 +4297,10 @@
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4317,10 +4317,10 @@
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4337,10 +4337,10 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4357,30 +4357,30 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920091</v>
+        <v>19330051920093</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4397,47 +4397,47 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920093</v>
+        <v>19330051920094</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920093</v>
+        <v>19330051920094</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -4457,10 +4457,10 @@
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4477,10 +4477,10 @@
         <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4497,10 +4497,10 @@
         <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4517,70 +4517,70 @@
         <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920094</v>
+        <v>19330051920095</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920094</v>
+        <v>19330051920095</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920094</v>
+        <v>19330051920095</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4597,10 +4597,10 @@
         <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4617,90 +4617,90 @@
         <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920095</v>
+        <v>19330051920098</v>
       </c>
       <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920095</v>
+        <v>19330051920098</v>
       </c>
       <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920095</v>
+        <v>19330051920098</v>
       </c>
       <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920095</v>
+        <v>19330051920098</v>
       </c>
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>75</v>
-      </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4717,10 +4717,10 @@
         <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4737,10 +4737,10 @@
         <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4757,164 +4757,164 @@
         <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920098</v>
+        <v>19330051920099</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920098</v>
+        <v>19330051920099</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920098</v>
+        <v>19330051920099</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920098</v>
+        <v>19330051920101</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920099</v>
+        <v>19330051920101</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920099</v>
+        <v>19330051920101</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920099</v>
+        <v>19330051920102</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920101</v>
+        <v>19330051920105</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
@@ -4925,119 +4925,119 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920101</v>
+        <v>19330051920105</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920101</v>
+        <v>19330051920105</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920101</v>
+        <v>19330051920109</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920102</v>
+        <v>19330051920109</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920105</v>
+        <v>19330051920109</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920105</v>
+        <v>19330051920109</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
         <v>56</v>
@@ -5045,42 +5045,42 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920105</v>
+        <v>19330051920109</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920105</v>
+        <v>19330051920109</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5097,344 +5097,344 @@
         <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920109</v>
+        <v>19330051920112</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920109</v>
+        <v>19330051920112</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920109</v>
+        <v>19330051920112</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920109</v>
+        <v>19330051920001</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920109</v>
+        <v>19330051920001</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920109</v>
+        <v>19330051920001</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920112</v>
+        <v>19330051920001</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920112</v>
+        <v>19330051920001</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920112</v>
+        <v>19330051920116</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920112</v>
+        <v>19330051920116</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920001</v>
+        <v>19330051920116</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920001</v>
+        <v>19330051920117</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920001</v>
+        <v>19330051920117</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920001</v>
+        <v>19330051920118</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920001</v>
+        <v>19330051920118</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920001</v>
+        <v>19330051920118</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920116</v>
+        <v>19330051920119</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -5445,19 +5445,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920116</v>
+        <v>19330051920119</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
@@ -5465,79 +5465,79 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920116</v>
+        <v>19330051920119</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920116</v>
+        <v>19330051920120</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920117</v>
+        <v>19330051920122</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920117</v>
+        <v>19330051920122</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
         <v>59</v>
@@ -5545,241 +5545,21 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920118</v>
+        <v>19330051920122</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920118</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920118</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920118</v>
-      </c>
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920119</v>
-      </c>
-      <c r="B78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" t="s">
-        <v>114</v>
-      </c>
-      <c r="E78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920119</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920119</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920119</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" t="s">
-        <v>114</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920120</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920122</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920122</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920122</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5819,16 +5599,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920094</v>
+        <v>19330051920098</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -5836,16 +5616,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920098</v>
+        <v>19330051920109</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -5853,33 +5633,33 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920109</v>
+        <v>19330051920091</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920091</v>
+        <v>19330051920094</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -5899,7 +5679,7 @@
         <v>103</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5916,7 +5696,7 @@
         <v>111</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5938,118 +5718,118 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920101</v>
+        <v>19330051920099</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920105</v>
+        <v>19330051920101</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920112</v>
+        <v>19330051920105</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920116</v>
+        <v>19330051920112</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920118</v>
+        <v>19330051920116</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920119</v>
+        <v>19330051920118</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920093</v>
+        <v>19330051920119</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -6057,16 +5837,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920099</v>
+        <v>19330051920122</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -6074,33 +5854,33 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920122</v>
+        <v>19330051920084</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920085</v>
+        <v>19330051920093</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -6108,16 +5888,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920084</v>
+        <v>19330051920117</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -6125,19 +5905,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920117</v>
+        <v>19330051920085</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6441,10 +6221,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
